--- a/Extracao/Fatura1.pdf.xlsx
+++ b/Extracao/Fatura1.pdf.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Simple Fields - Formatted" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Simple Fields" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -31,9 +31,7 @@
     <x:t>Total</x:t>
   </x:si>
   <x:si>
-    <x:t>Key,Value
-"Given Name","Move-For-You"
-"Last Name","Co."</x:t>
+    <x:t>Move-For-You Co.</x:t>
   </x:si>
   <x:si>
     <x:t>456200-TZE1</x:t>
@@ -96,13 +94,9 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -424,7 +418,7 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
-      <x:c r="A2" s="1" t="s">
+      <x:c r="A2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
